--- a/Excel/excel/xls/Z障碍物表.xlsx
+++ b/Excel/excel/xls/Z障碍物表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -376,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -405,6 +405,14 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
     </row>
